--- a/data/pca/factorExposure/factorExposure_2011-02-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-02-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.009444605676112222</v>
+        <v>0.01662210875941936</v>
       </c>
       <c r="C2">
-        <v>-8.295095764819944e-06</v>
+        <v>0.007027528505957136</v>
       </c>
       <c r="D2">
-        <v>-0.02569810013482341</v>
+        <v>-0.006122380631722628</v>
       </c>
       <c r="E2">
-        <v>-0.02131765605623001</v>
+        <v>-0.0159945542057079</v>
       </c>
       <c r="F2">
-        <v>0.01310150987689686</v>
+        <v>-0.000371160446873408</v>
       </c>
       <c r="G2">
-        <v>-0.01419084736874361</v>
+        <v>0.01824048758329929</v>
       </c>
       <c r="H2">
-        <v>-0.05187370768614325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.01387348633055351</v>
+      </c>
+      <c r="I2">
+        <v>0.007750211267871788</v>
+      </c>
+      <c r="J2">
+        <v>0.0223402109302013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1093859406484141</v>
+        <v>0.124242344673955</v>
       </c>
       <c r="C4">
-        <v>0.01594071058062059</v>
+        <v>0.05431931126513745</v>
       </c>
       <c r="D4">
-        <v>-0.06206775712882494</v>
+        <v>-0.006927825201715409</v>
       </c>
       <c r="E4">
-        <v>-0.05379603857639501</v>
+        <v>-0.004308012293452958</v>
       </c>
       <c r="F4">
-        <v>0.01831104707022378</v>
+        <v>2.534566234827519e-05</v>
       </c>
       <c r="G4">
-        <v>-0.03076463767236331</v>
+        <v>0.002873502248496689</v>
       </c>
       <c r="H4">
-        <v>0.03567202299937309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.0526663883539037</v>
+      </c>
+      <c r="I4">
+        <v>0.1166503955423995</v>
+      </c>
+      <c r="J4">
+        <v>-0.06935000372562532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.1286929803730472</v>
+        <v>0.1195957839603895</v>
       </c>
       <c r="C6">
-        <v>0.03098828700490965</v>
+        <v>-0.001714365510392093</v>
       </c>
       <c r="D6">
-        <v>0.04270718031953028</v>
+        <v>-0.01326332087025769</v>
       </c>
       <c r="E6">
-        <v>-0.02270075561968433</v>
+        <v>-0.01841616662810339</v>
       </c>
       <c r="F6">
-        <v>-0.2606131416957695</v>
+        <v>-0.03247415691784017</v>
       </c>
       <c r="G6">
-        <v>0.1380260897831528</v>
+        <v>-0.05036802211860909</v>
       </c>
       <c r="H6">
-        <v>0.237408597323653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.06220520402139787</v>
+      </c>
+      <c r="I6">
+        <v>0.03268884586035052</v>
+      </c>
+      <c r="J6">
+        <v>0.08247123243335257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.08978205696682857</v>
+        <v>0.08179147646907049</v>
       </c>
       <c r="C7">
-        <v>0.03619868529803322</v>
+        <v>0.04921065631491763</v>
       </c>
       <c r="D7">
-        <v>-0.02476564601969879</v>
+        <v>-0.03625291985371819</v>
       </c>
       <c r="E7">
-        <v>-0.05208733922903788</v>
+        <v>-0.04202459786954831</v>
       </c>
       <c r="F7">
-        <v>-0.007093827742329942</v>
+        <v>-0.01093160126239433</v>
       </c>
       <c r="G7">
-        <v>-0.003469717015468026</v>
+        <v>0.04407019839443353</v>
       </c>
       <c r="H7">
-        <v>0.01614972471870682</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.02461947528473634</v>
+      </c>
+      <c r="I7">
+        <v>0.02588699804813686</v>
+      </c>
+      <c r="J7">
+        <v>-0.0610013624740005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04102631342129149</v>
+        <v>0.05241064765901008</v>
       </c>
       <c r="C8">
-        <v>-0.04274990139270627</v>
+        <v>0.007447749095748978</v>
       </c>
       <c r="D8">
-        <v>-0.0638521620556502</v>
+        <v>-0.005627309600289398</v>
       </c>
       <c r="E8">
-        <v>-0.1009200670131672</v>
+        <v>-0.02531840712959253</v>
       </c>
       <c r="F8">
-        <v>-0.004070334018393176</v>
+        <v>0.01884229130338501</v>
       </c>
       <c r="G8">
-        <v>-0.1674685820324804</v>
+        <v>-0.001339515746818562</v>
       </c>
       <c r="H8">
-        <v>0.1055111228535463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.07027809475648913</v>
+      </c>
+      <c r="I8">
+        <v>0.1003725724881679</v>
+      </c>
+      <c r="J8">
+        <v>0.001320749078513265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.09507720030909923</v>
+        <v>0.09707590263546659</v>
       </c>
       <c r="C9">
-        <v>0.03246242455285585</v>
+        <v>0.05117354786819701</v>
       </c>
       <c r="D9">
-        <v>-0.03745460307594958</v>
+        <v>0.008829346146139467</v>
       </c>
       <c r="E9">
-        <v>-0.04835025180237315</v>
+        <v>-0.0158472512106002</v>
       </c>
       <c r="F9">
-        <v>0.008291213504097053</v>
+        <v>0.01111185121052821</v>
       </c>
       <c r="G9">
-        <v>-0.07333622284981818</v>
+        <v>0.01754963039636336</v>
       </c>
       <c r="H9">
-        <v>0.0610258988316834</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.06547043352271491</v>
+      </c>
+      <c r="I9">
+        <v>0.09744425785070691</v>
+      </c>
+      <c r="J9">
+        <v>-0.03687807872901547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.03968578278386486</v>
+        <v>0.06768812333247343</v>
       </c>
       <c r="C10">
-        <v>-0.1814540689342367</v>
+        <v>-0.1894569555398559</v>
       </c>
       <c r="D10">
-        <v>-0.008783352985204612</v>
+        <v>0.005274513112230227</v>
       </c>
       <c r="E10">
-        <v>-0.09830743460051387</v>
+        <v>0.00129303779137497</v>
       </c>
       <c r="F10">
-        <v>-0.02214310480811538</v>
+        <v>-0.006193338016196324</v>
       </c>
       <c r="G10">
-        <v>0.0179722005515986</v>
+        <v>0.06551022091769157</v>
       </c>
       <c r="H10">
-        <v>0.04338505790151949</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.006775144313367535</v>
+      </c>
+      <c r="I10">
+        <v>0.008782401780997583</v>
+      </c>
+      <c r="J10">
+        <v>-0.0275539476252493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.07598801325110373</v>
+        <v>0.09291920625355551</v>
       </c>
       <c r="C11">
-        <v>0.05645807754750377</v>
+        <v>0.06915460024653353</v>
       </c>
       <c r="D11">
-        <v>0.02363634610742478</v>
+        <v>-0.02750634133186455</v>
       </c>
       <c r="E11">
-        <v>-0.01766221375631877</v>
+        <v>-0.04649970505814358</v>
       </c>
       <c r="F11">
-        <v>0.041004573058614</v>
+        <v>0.05952535251092086</v>
       </c>
       <c r="G11">
-        <v>-0.142105936490325</v>
+        <v>-0.003196419306712145</v>
       </c>
       <c r="H11">
-        <v>-0.03346370875792003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.09356801756864411</v>
+      </c>
+      <c r="I11">
+        <v>0.1117804358231361</v>
+      </c>
+      <c r="J11">
+        <v>0.01063039797888622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.07561026798064342</v>
+        <v>0.09528450880736219</v>
       </c>
       <c r="C12">
-        <v>0.03393745770990549</v>
+        <v>0.07002017085758303</v>
       </c>
       <c r="D12">
-        <v>-0.01136221562059138</v>
+        <v>-0.02782848077016783</v>
       </c>
       <c r="E12">
-        <v>-0.009441608302750351</v>
+        <v>-0.04442892157375435</v>
       </c>
       <c r="F12">
-        <v>-0.005258393424782351</v>
+        <v>0.07638417590383709</v>
       </c>
       <c r="G12">
-        <v>-0.1451599499806696</v>
+        <v>0.01401838500968945</v>
       </c>
       <c r="H12">
-        <v>-0.02935184541062233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.09044391578773953</v>
+      </c>
+      <c r="I12">
+        <v>0.07870904322887388</v>
+      </c>
+      <c r="J12">
+        <v>0.03222150609535754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06030309153099662</v>
+        <v>0.04861186583720322</v>
       </c>
       <c r="C13">
-        <v>0.007696472022790364</v>
+        <v>0.01943749681062832</v>
       </c>
       <c r="D13">
-        <v>-0.02380549493186862</v>
+        <v>0.03069937009808629</v>
       </c>
       <c r="E13">
-        <v>-0.01048110900750748</v>
+        <v>-0.01390852744937699</v>
       </c>
       <c r="F13">
-        <v>0.04714634429492424</v>
+        <v>-0.01326525811197074</v>
       </c>
       <c r="G13">
-        <v>-0.08249653467784097</v>
+        <v>0.007261492248313088</v>
       </c>
       <c r="H13">
-        <v>0.02280268446686993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.06479460112331491</v>
+      </c>
+      <c r="I13">
+        <v>0.04915019353465726</v>
+      </c>
+      <c r="J13">
+        <v>0.001797106630436406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.0531136023772707</v>
+        <v>0.03335128457654331</v>
       </c>
       <c r="C14">
-        <v>0.005099015929638696</v>
+        <v>0.005980443991602047</v>
       </c>
       <c r="D14">
-        <v>-0.01681940536594599</v>
+        <v>-0.005791301671407685</v>
       </c>
       <c r="E14">
-        <v>-0.0484178915008236</v>
+        <v>-0.002287831105356994</v>
       </c>
       <c r="F14">
-        <v>0.01085810868330681</v>
+        <v>0.01638725769760467</v>
       </c>
       <c r="G14">
-        <v>-0.02139478348799614</v>
+        <v>0.01045813438231928</v>
       </c>
       <c r="H14">
-        <v>0.1640914599751539</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.02998155451927768</v>
+      </c>
+      <c r="I14">
+        <v>0.05071739082366763</v>
+      </c>
+      <c r="J14">
+        <v>-0.1057711984428497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.03816226997411961</v>
+        <v>0.03180784458564997</v>
       </c>
       <c r="C15">
-        <v>-0.0114558986542559</v>
+        <v>0.01560066869840065</v>
       </c>
       <c r="D15">
-        <v>-0.004799552332277274</v>
+        <v>0.01025027133986786</v>
       </c>
       <c r="E15">
-        <v>-0.02178849076790022</v>
+        <v>-0.01738122536285392</v>
       </c>
       <c r="F15">
-        <v>-0.002296896626011671</v>
+        <v>-0.0276773528235988</v>
       </c>
       <c r="G15">
-        <v>-0.001278211180746421</v>
+        <v>0.007132232827910582</v>
       </c>
       <c r="H15">
-        <v>0.07432162803604195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.04752565231619713</v>
+      </c>
+      <c r="I15">
+        <v>0.02455662841356539</v>
+      </c>
+      <c r="J15">
+        <v>-0.03884477268595785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.08326986235244235</v>
+        <v>0.09779034591071914</v>
       </c>
       <c r="C16">
-        <v>0.06456092994953562</v>
+        <v>0.06733087248249317</v>
       </c>
       <c r="D16">
-        <v>-0.02345588900404515</v>
+        <v>-0.03851896942892953</v>
       </c>
       <c r="E16">
-        <v>-0.01762446035594767</v>
+        <v>-0.05304570141275502</v>
       </c>
       <c r="F16">
-        <v>0.04389817297546393</v>
+        <v>0.05777729062986751</v>
       </c>
       <c r="G16">
-        <v>-0.124457751108087</v>
+        <v>0.00368070022907021</v>
       </c>
       <c r="H16">
-        <v>-0.03164126647597156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.1069204350513261</v>
+      </c>
+      <c r="I16">
+        <v>0.08942193514807092</v>
+      </c>
+      <c r="J16">
+        <v>0.00108573210874374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.05679252688567341</v>
+        <v>0.05574036514837254</v>
       </c>
       <c r="C20">
-        <v>0.01528141482973843</v>
+        <v>0.03147903205276624</v>
       </c>
       <c r="D20">
-        <v>0.01254805951904322</v>
+        <v>-0.03083547503837924</v>
       </c>
       <c r="E20">
-        <v>-0.01777832372405589</v>
+        <v>-0.006128638237247942</v>
       </c>
       <c r="F20">
-        <v>0.000698947750898133</v>
+        <v>-0.007539081961680101</v>
       </c>
       <c r="G20">
-        <v>-0.1068078853419043</v>
+        <v>0.004749493338574337</v>
       </c>
       <c r="H20">
-        <v>0.01534598819247306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.04189667300399873</v>
+      </c>
+      <c r="I20">
+        <v>0.04437344770694588</v>
+      </c>
+      <c r="J20">
+        <v>-0.06281715373808303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.02770760138913714</v>
+        <v>0.02202442779193993</v>
       </c>
       <c r="C21">
-        <v>0.03091986841493195</v>
+        <v>6.209231392586077e-05</v>
       </c>
       <c r="D21">
-        <v>-0.0002531093184812979</v>
+        <v>-0.006699396453566812</v>
       </c>
       <c r="E21">
-        <v>0.001972085294368496</v>
+        <v>0.03336544838961407</v>
       </c>
       <c r="F21">
-        <v>-0.06660260885878896</v>
+        <v>-8.948791307914267e-05</v>
       </c>
       <c r="G21">
-        <v>0.1260234982807802</v>
+        <v>-0.02693596712947877</v>
       </c>
       <c r="H21">
-        <v>0.09953583024183667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.03008738669273579</v>
+      </c>
+      <c r="I21">
+        <v>0.07009759237452005</v>
+      </c>
+      <c r="J21">
+        <v>-0.0311377619046334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.04274000819390056</v>
+        <v>0.0339102838978771</v>
       </c>
       <c r="C22">
-        <v>0.01070822239362609</v>
+        <v>-0.01969661362207959</v>
       </c>
       <c r="D22">
-        <v>-0.6273719794638144</v>
+        <v>0.0006216874084126498</v>
       </c>
       <c r="E22">
-        <v>0.1136899974988211</v>
+        <v>-0.1104880187423887</v>
       </c>
       <c r="F22">
-        <v>0.007148975611338225</v>
+        <v>-0.5994471273566265</v>
       </c>
       <c r="G22">
-        <v>0.207982570704943</v>
+        <v>0.07463558481905889</v>
       </c>
       <c r="H22">
-        <v>-0.0716870951682901</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.2565929858156178</v>
+      </c>
+      <c r="I22">
+        <v>-0.1048284506215654</v>
+      </c>
+      <c r="J22">
+        <v>0.05864388034254189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.0431615955962064</v>
+        <v>0.03409125826005584</v>
       </c>
       <c r="C23">
-        <v>0.01152909771281546</v>
+        <v>-0.01939473861664768</v>
       </c>
       <c r="D23">
-        <v>-0.627031716022781</v>
+        <v>0.0001942210209741316</v>
       </c>
       <c r="E23">
-        <v>0.1120790377129786</v>
+        <v>-0.1121755575385667</v>
       </c>
       <c r="F23">
-        <v>0.007273627666108225</v>
+        <v>-0.6012605638970291</v>
       </c>
       <c r="G23">
-        <v>0.2099510606480934</v>
+        <v>0.07439269851889287</v>
       </c>
       <c r="H23">
-        <v>-0.07153157360634692</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.2579713364281997</v>
+      </c>
+      <c r="I23">
+        <v>-0.1023516153889362</v>
+      </c>
+      <c r="J23">
+        <v>0.05679022779767287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.08483259296624036</v>
+        <v>0.1008789252993991</v>
       </c>
       <c r="C24">
-        <v>0.04489543540202259</v>
+        <v>0.06561298762040262</v>
       </c>
       <c r="D24">
-        <v>-0.02796570855239848</v>
+        <v>-0.03388947750826538</v>
       </c>
       <c r="E24">
-        <v>-0.03307626566564677</v>
+        <v>-0.04141515131852073</v>
       </c>
       <c r="F24">
-        <v>0.01347254899465409</v>
+        <v>0.05630505134962278</v>
       </c>
       <c r="G24">
-        <v>-0.1152936029310201</v>
+        <v>0.01760246271503644</v>
       </c>
       <c r="H24">
-        <v>-0.01674377465379511</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.1034770735632895</v>
+      </c>
+      <c r="I24">
+        <v>0.08771493622476632</v>
+      </c>
+      <c r="J24">
+        <v>0.01777632045637153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.07794506982758434</v>
+        <v>0.1002275709348555</v>
       </c>
       <c r="C25">
-        <v>0.01826749650071072</v>
+        <v>0.05026788278235127</v>
       </c>
       <c r="D25">
-        <v>-0.0145065383734178</v>
+        <v>-0.02681519415584061</v>
       </c>
       <c r="E25">
-        <v>-0.0212634075527015</v>
+        <v>-0.04592506919038223</v>
       </c>
       <c r="F25">
-        <v>-0.01044884307490665</v>
+        <v>0.08427752429628697</v>
       </c>
       <c r="G25">
-        <v>-0.1175676052729118</v>
+        <v>0.01588571547078439</v>
       </c>
       <c r="H25">
-        <v>-0.02248876402667035</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.09749505840076192</v>
+      </c>
+      <c r="I25">
+        <v>0.08447842096774794</v>
+      </c>
+      <c r="J25">
+        <v>-0.002680989785530365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.05214745637446132</v>
+        <v>0.04517178175533053</v>
       </c>
       <c r="C26">
-        <v>0.02135809582556969</v>
+        <v>-0.0007633656695546887</v>
       </c>
       <c r="D26">
-        <v>-0.004275191069499125</v>
+        <v>-0.02466224917161894</v>
       </c>
       <c r="E26">
-        <v>-0.04897339314580475</v>
+        <v>-0.006380364130160606</v>
       </c>
       <c r="F26">
-        <v>0.04144255679549794</v>
+        <v>0.005529217783451931</v>
       </c>
       <c r="G26">
-        <v>-0.06311514659483196</v>
+        <v>-0.01551559964777042</v>
       </c>
       <c r="H26">
-        <v>0.1003055084951524</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.06592822117119485</v>
+      </c>
+      <c r="I26">
+        <v>0.02610555071639107</v>
+      </c>
+      <c r="J26">
+        <v>-0.07566653731743486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.06283738113128733</v>
+        <v>0.07185404677830139</v>
       </c>
       <c r="C28">
-        <v>-0.3066787764908697</v>
+        <v>-0.3032569961327173</v>
       </c>
       <c r="D28">
-        <v>0.005719453356706057</v>
+        <v>0.07769201647333068</v>
       </c>
       <c r="E28">
-        <v>-0.01801059514311958</v>
+        <v>-0.03532652600224138</v>
       </c>
       <c r="F28">
-        <v>-0.02526800198875863</v>
+        <v>0.04470442814277723</v>
       </c>
       <c r="G28">
-        <v>0.02137903922181345</v>
+        <v>-0.004634575902499062</v>
       </c>
       <c r="H28">
-        <v>-0.08007816474889219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.04055524504022306</v>
+      </c>
+      <c r="I28">
+        <v>0.05387487107213623</v>
+      </c>
+      <c r="J28">
+        <v>0.007028405753483786</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.0584125732103735</v>
+        <v>0.03602710904931648</v>
       </c>
       <c r="C29">
-        <v>-0.002653104079866492</v>
+        <v>0.005738426262451196</v>
       </c>
       <c r="D29">
-        <v>-0.04000096366325563</v>
+        <v>0.005121892574030398</v>
       </c>
       <c r="E29">
-        <v>-0.02935980165750844</v>
+        <v>-0.008482358326290766</v>
       </c>
       <c r="F29">
-        <v>0.01915947574528497</v>
+        <v>0.0250134618297653</v>
       </c>
       <c r="G29">
-        <v>-0.04357597791389733</v>
+        <v>0.02725687115871637</v>
       </c>
       <c r="H29">
-        <v>0.1091062123469114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.06606533056016239</v>
+      </c>
+      <c r="I29">
+        <v>0.03728735247275628</v>
+      </c>
+      <c r="J29">
+        <v>-0.1051396202690806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1139170438582448</v>
+        <v>0.1168209692427992</v>
       </c>
       <c r="C30">
-        <v>-0.01244426837747429</v>
+        <v>0.04908947733695848</v>
       </c>
       <c r="D30">
-        <v>-0.1596955645007511</v>
+        <v>0.01835394596438909</v>
       </c>
       <c r="E30">
-        <v>-0.04107282376328501</v>
+        <v>-0.04048247932035862</v>
       </c>
       <c r="F30">
-        <v>-0.1456636009544182</v>
+        <v>0.02573169425036767</v>
       </c>
       <c r="G30">
-        <v>-0.2247120521185613</v>
+        <v>-0.02699426647735848</v>
       </c>
       <c r="H30">
-        <v>-0.01173720961045393</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1348831714331817</v>
+      </c>
+      <c r="I30">
+        <v>0.03865150424799251</v>
+      </c>
+      <c r="J30">
+        <v>0.1769750825207054</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05383700975644787</v>
+        <v>0.03640069125462873</v>
       </c>
       <c r="C31">
-        <v>0.02795467395094998</v>
+        <v>0.02142157297855334</v>
       </c>
       <c r="D31">
-        <v>-0.02073854457311605</v>
+        <v>-0.02068586480055112</v>
       </c>
       <c r="E31">
-        <v>0.0114783491111965</v>
+        <v>-0.02039278634335681</v>
       </c>
       <c r="F31">
-        <v>0.02339400741314727</v>
+        <v>-0.00534086068997221</v>
       </c>
       <c r="G31">
-        <v>-0.02307461070760869</v>
+        <v>0.004992292263672132</v>
       </c>
       <c r="H31">
-        <v>0.03650777084246484</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.008084410797275029</v>
+      </c>
+      <c r="I31">
+        <v>0.02559502003949569</v>
+      </c>
+      <c r="J31">
+        <v>-0.07318587500437317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.03486116742508018</v>
+        <v>0.05635459200981929</v>
       </c>
       <c r="C32">
-        <v>-0.01309901762670749</v>
+        <v>0.006548581629803618</v>
       </c>
       <c r="D32">
-        <v>-0.06521811148894163</v>
+        <v>-0.0196984106423551</v>
       </c>
       <c r="E32">
-        <v>0.002242337559423698</v>
+        <v>-0.00747386643351674</v>
       </c>
       <c r="F32">
-        <v>0.08624538684115871</v>
+        <v>0.05934125767281863</v>
       </c>
       <c r="G32">
-        <v>-0.05030578942580269</v>
+        <v>-0.03872109198909405</v>
       </c>
       <c r="H32">
-        <v>0.04421259726714136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.04462036488168147</v>
+      </c>
+      <c r="I32">
+        <v>0.03077397194486214</v>
+      </c>
+      <c r="J32">
+        <v>0.006287148689174187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.1119082660066749</v>
+        <v>0.1101547091561908</v>
       </c>
       <c r="C33">
-        <v>0.01345527106744267</v>
+        <v>0.05106780745162862</v>
       </c>
       <c r="D33">
-        <v>-0.02060330834427411</v>
+        <v>0.0001369075516584611</v>
       </c>
       <c r="E33">
-        <v>0.02338004421194996</v>
+        <v>-0.07506167543985952</v>
       </c>
       <c r="F33">
-        <v>0.01251147940536601</v>
+        <v>0.04357952248866979</v>
       </c>
       <c r="G33">
-        <v>-0.07471550790839157</v>
+        <v>0.006811688025595045</v>
       </c>
       <c r="H33">
-        <v>0.07202221365488447</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.06980618846594616</v>
+      </c>
+      <c r="I33">
+        <v>0.02381600377125238</v>
+      </c>
+      <c r="J33">
+        <v>-0.03109145787828144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.06935527920984237</v>
+        <v>0.08736925593549284</v>
       </c>
       <c r="C34">
-        <v>0.03760448214341417</v>
+        <v>0.04719147756691511</v>
       </c>
       <c r="D34">
-        <v>7.022326574845504e-05</v>
+        <v>-0.03066589341541644</v>
       </c>
       <c r="E34">
-        <v>0.001391889117876973</v>
+        <v>-0.04118407222082376</v>
       </c>
       <c r="F34">
-        <v>0.03392799688970566</v>
+        <v>0.06050653713024749</v>
       </c>
       <c r="G34">
-        <v>-0.08697454358060838</v>
+        <v>0.01254553605970999</v>
       </c>
       <c r="H34">
-        <v>-0.005457027448274447</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.1064568497849703</v>
+      </c>
+      <c r="I34">
+        <v>0.05934026256701385</v>
+      </c>
+      <c r="J34">
+        <v>0.005500285011359764</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.04297592895400658</v>
+        <v>0.02171427322299416</v>
       </c>
       <c r="C35">
-        <v>0.001246983635217903</v>
+        <v>0.007671779916494938</v>
       </c>
       <c r="D35">
-        <v>0.02390398718290591</v>
+        <v>0.008206408326952422</v>
       </c>
       <c r="E35">
-        <v>0.0137525451337067</v>
+        <v>-0.008673068555101811</v>
       </c>
       <c r="F35">
-        <v>-0.03072869995776161</v>
+        <v>0.01917409921052623</v>
       </c>
       <c r="G35">
-        <v>-0.04014796808042809</v>
+        <v>0.0079486722206435</v>
       </c>
       <c r="H35">
-        <v>-0.01192181116085174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.04469777709994032</v>
+      </c>
+      <c r="I35">
+        <v>0.02413054232531487</v>
+      </c>
+      <c r="J35">
+        <v>-0.05195976815806878</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.03866202519339121</v>
+        <v>0.02725658102485589</v>
       </c>
       <c r="C36">
-        <v>0.0003173055213846309</v>
+        <v>0.009668283426989825</v>
       </c>
       <c r="D36">
-        <v>-0.01510405353366416</v>
+        <v>0.006645853344517113</v>
       </c>
       <c r="E36">
-        <v>-0.02510830910450138</v>
+        <v>-0.006527272760091751</v>
       </c>
       <c r="F36">
-        <v>-0.01197291366399865</v>
+        <v>-0.006181248169530743</v>
       </c>
       <c r="G36">
-        <v>-0.06632869453561228</v>
+        <v>-0.01324800022338509</v>
       </c>
       <c r="H36">
-        <v>0.06144701812975263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.03299466348453304</v>
+      </c>
+      <c r="I36">
+        <v>0.04252639691398818</v>
+      </c>
+      <c r="J36">
+        <v>-0.02807862974063482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05349409798693234</v>
+        <v>0.01764256757792032</v>
       </c>
       <c r="C38">
-        <v>0.01974215645984244</v>
+        <v>0.007936454346920823</v>
       </c>
       <c r="D38">
-        <v>-0.005732646962431124</v>
+        <v>-0.007539150936677608</v>
       </c>
       <c r="E38">
-        <v>-0.007915491294125514</v>
+        <v>-0.009818258707389194</v>
       </c>
       <c r="F38">
-        <v>0.03387914826052087</v>
+        <v>-0.02335316208655342</v>
       </c>
       <c r="G38">
-        <v>-0.0540922573062953</v>
+        <v>0.01708737268836679</v>
       </c>
       <c r="H38">
-        <v>0.0004887003037912396</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.01812639293828642</v>
+      </c>
+      <c r="I38">
+        <v>-0.04486303858419181</v>
+      </c>
+      <c r="J38">
+        <v>-0.01207890328723852</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.1070127496774442</v>
+        <v>0.1512801119598091</v>
       </c>
       <c r="C39">
-        <v>0.04072418102359777</v>
+        <v>0.1028078191710148</v>
       </c>
       <c r="D39">
-        <v>-0.06230564461933746</v>
+        <v>-0.02594218965409003</v>
       </c>
       <c r="E39">
-        <v>-0.02254308556610995</v>
+        <v>-0.06611184437042261</v>
       </c>
       <c r="F39">
-        <v>0.02533341097483156</v>
+        <v>0.1553854923318081</v>
       </c>
       <c r="G39">
-        <v>-0.1569382991421154</v>
+        <v>0.02613071244734002</v>
       </c>
       <c r="H39">
-        <v>-0.1043288376513668</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.164019163098145</v>
+      </c>
+      <c r="I39">
+        <v>0.06030835927973175</v>
+      </c>
+      <c r="J39">
+        <v>0.007645742998049142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.04783777567619768</v>
+        <v>0.01843554297743894</v>
       </c>
       <c r="C40">
-        <v>0.01570552167867028</v>
+        <v>0.01010336114010784</v>
       </c>
       <c r="D40">
-        <v>-0.04977512478371972</v>
+        <v>-0.01300292174458778</v>
       </c>
       <c r="E40">
-        <v>0.02252138396676789</v>
+        <v>0.001243334286350296</v>
       </c>
       <c r="F40">
-        <v>-0.03013440560529069</v>
+        <v>-0.05406257109806847</v>
       </c>
       <c r="G40">
-        <v>-0.3123810008236226</v>
+        <v>-0.001715494764516831</v>
       </c>
       <c r="H40">
-        <v>-0.05084279420073354</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.08218241990533356</v>
+      </c>
+      <c r="I40">
+        <v>0.07047073017479112</v>
+      </c>
+      <c r="J40">
+        <v>0.01654595171691117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.0510505092682948</v>
+        <v>0.02549445604298301</v>
       </c>
       <c r="C41">
-        <v>0.0275877780010118</v>
+        <v>-0.007572501574165655</v>
       </c>
       <c r="D41">
-        <v>0.0267069606439648</v>
+        <v>-0.02957619257732558</v>
       </c>
       <c r="E41">
-        <v>-0.004641059272200448</v>
+        <v>-0.005177128305642813</v>
       </c>
       <c r="F41">
-        <v>0.04149087815216547</v>
+        <v>0.012133753474033</v>
       </c>
       <c r="G41">
-        <v>-0.04863352045422144</v>
+        <v>0.01154462902662001</v>
       </c>
       <c r="H41">
-        <v>0.00634842681836519</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.002817020197577676</v>
+      </c>
+      <c r="I41">
+        <v>0.0040026646427763</v>
+      </c>
+      <c r="J41">
+        <v>-0.05086012719117765</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.07385722623333354</v>
+        <v>0.03842652900485934</v>
       </c>
       <c r="C43">
-        <v>0.02512844854157394</v>
+        <v>-0.002027814439296402</v>
       </c>
       <c r="D43">
-        <v>-0.0269582387226869</v>
+        <v>-0.03698080714271532</v>
       </c>
       <c r="E43">
-        <v>-0.01424862057994177</v>
+        <v>-0.03232449920910645</v>
       </c>
       <c r="F43">
-        <v>0.037263937597823</v>
+        <v>-0.005896018479500889</v>
       </c>
       <c r="G43">
-        <v>-0.01061803227038735</v>
+        <v>0.006811879095436165</v>
       </c>
       <c r="H43">
-        <v>0.00268259430133071</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.0003968109047437994</v>
+      </c>
+      <c r="I43">
+        <v>0.001177097085060195</v>
+      </c>
+      <c r="J43">
+        <v>-0.07574187952945126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.08017229519686972</v>
+        <v>0.1301348130798895</v>
       </c>
       <c r="C44">
-        <v>0.003417200966318465</v>
+        <v>0.07052470404708483</v>
       </c>
       <c r="D44">
-        <v>-0.05850086512516551</v>
+        <v>0.009467999960348639</v>
       </c>
       <c r="E44">
-        <v>-0.1104773020484703</v>
+        <v>-0.03914371955532867</v>
       </c>
       <c r="F44">
-        <v>0.0649148096180405</v>
+        <v>-0.04059557154892722</v>
       </c>
       <c r="G44">
-        <v>-0.09067989549599602</v>
+        <v>0.08566995439571141</v>
       </c>
       <c r="H44">
-        <v>0.01945806765723261</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.2018229376200052</v>
+      </c>
+      <c r="I44">
+        <v>0.07983316913835989</v>
+      </c>
+      <c r="J44">
+        <v>0.1075219672207049</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.05418450709765083</v>
+        <v>0.02482070944777227</v>
       </c>
       <c r="C46">
-        <v>0.03414137218732133</v>
+        <v>-0.002693878836976242</v>
       </c>
       <c r="D46">
-        <v>-0.04787815610465476</v>
+        <v>-0.02285256659544279</v>
       </c>
       <c r="E46">
-        <v>-0.006282229503994534</v>
+        <v>-0.03070811096607266</v>
       </c>
       <c r="F46">
-        <v>0.01817772057766228</v>
+        <v>-0.02341860150720092</v>
       </c>
       <c r="G46">
-        <v>-0.01888806563770231</v>
+        <v>0.02392102661691019</v>
       </c>
       <c r="H46">
-        <v>0.09705165859622673</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.0472485896152814</v>
+      </c>
+      <c r="I46">
+        <v>0.02246479447857311</v>
+      </c>
+      <c r="J46">
+        <v>-0.09687368108536537</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.04990448756305518</v>
+        <v>0.042435844009235</v>
       </c>
       <c r="C47">
-        <v>-0.002054225455265763</v>
+        <v>-0.004355798530332795</v>
       </c>
       <c r="D47">
-        <v>-0.0486555748325837</v>
+        <v>-0.009313907881509787</v>
       </c>
       <c r="E47">
-        <v>0.0224264447760634</v>
+        <v>-0.01308467302991686</v>
       </c>
       <c r="F47">
-        <v>-0.02309797690146406</v>
+        <v>-0.01247603115673939</v>
       </c>
       <c r="G47">
-        <v>-0.03537608372131559</v>
+        <v>-0.005016277490138056</v>
       </c>
       <c r="H47">
-        <v>0.05069212448396429</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.02952267903957829</v>
+      </c>
+      <c r="I47">
+        <v>0.03047385407978183</v>
+      </c>
+      <c r="J47">
+        <v>-0.05023564753408777</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.04314698887323924</v>
+        <v>0.04052570392270443</v>
       </c>
       <c r="C48">
-        <v>0.001037599647231557</v>
+        <v>0.01113914459490596</v>
       </c>
       <c r="D48">
-        <v>-0.02677906550033782</v>
+        <v>0.01215344235084964</v>
       </c>
       <c r="E48">
-        <v>0.03434888306044611</v>
+        <v>-0.01474314613493208</v>
       </c>
       <c r="F48">
-        <v>-0.02089824980464935</v>
+        <v>0.01085067483439794</v>
       </c>
       <c r="G48">
-        <v>-0.05634024214498204</v>
+        <v>-0.009623668283111607</v>
       </c>
       <c r="H48">
-        <v>0.01918652261580105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.05839869034126952</v>
+      </c>
+      <c r="I48">
+        <v>0.03991452074939743</v>
+      </c>
+      <c r="J48">
+        <v>-0.06244278229896096</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>-0.2458713773797146</v>
+        <v>0.2312504748330104</v>
       </c>
       <c r="C49">
-        <v>0.05904486329573042</v>
+        <v>0.006821171738657755</v>
       </c>
       <c r="D49">
-        <v>0.1002967821245846</v>
+        <v>-0.06554757473200794</v>
       </c>
       <c r="E49">
-        <v>0.003500982987634538</v>
+        <v>0.02977270653869191</v>
       </c>
       <c r="F49">
-        <v>-0.05923696954978255</v>
+        <v>0.01882357666347183</v>
       </c>
       <c r="G49">
-        <v>0.1944914110189725</v>
+        <v>0.07112737565203882</v>
       </c>
       <c r="H49">
-        <v>-0.1223597179465915</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.1156682206274454</v>
+      </c>
+      <c r="I49">
+        <v>-0.1020609240689841</v>
+      </c>
+      <c r="J49">
+        <v>0.2767231459394586</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.05523804735256891</v>
+        <v>0.04331623229723279</v>
       </c>
       <c r="C50">
-        <v>0.01749170264203643</v>
+        <v>0.01829497743570082</v>
       </c>
       <c r="D50">
-        <v>-0.02273498281381001</v>
+        <v>-0.02736206609859894</v>
       </c>
       <c r="E50">
-        <v>0.01523304312285445</v>
+        <v>-0.01361283827206739</v>
       </c>
       <c r="F50">
-        <v>0.02894305184487198</v>
+        <v>0.005152679429050875</v>
       </c>
       <c r="G50">
-        <v>-0.01478725104835676</v>
+        <v>0.006615635346074532</v>
       </c>
       <c r="H50">
-        <v>0.06737887984725625</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.03151687431924646</v>
+      </c>
+      <c r="I50">
+        <v>0.01351702874777477</v>
+      </c>
+      <c r="J50">
+        <v>-0.06550005485041745</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.03433242684537826</v>
+        <v>0.01496089198078283</v>
       </c>
       <c r="C51">
-        <v>0.01173573581650759</v>
+        <v>-0.007928565815263916</v>
       </c>
       <c r="D51">
-        <v>-0.01462802501193758</v>
+        <v>-0.002286584717946545</v>
       </c>
       <c r="E51">
-        <v>-0.02250506724688525</v>
+        <v>-0.01525444249847602</v>
       </c>
       <c r="F51">
-        <v>0.02402965880001135</v>
+        <v>-0.01067467238568388</v>
       </c>
       <c r="G51">
-        <v>0.01679781297120403</v>
+        <v>0.02302660127429691</v>
       </c>
       <c r="H51">
-        <v>-0.03909252741213061</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.01944027767628076</v>
+      </c>
+      <c r="I51">
+        <v>-0.0002360204892344601</v>
+      </c>
+      <c r="J51">
+        <v>0.01997296405048092</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.1009523264440629</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.06318249948396309</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.02995652904158506</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.02511914925535758</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.02752367550336468</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.005295847483598255</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.04780192720986209</v>
+      </c>
+      <c r="I52">
+        <v>-0.05530374802087971</v>
+      </c>
+      <c r="J52">
+        <v>-0.09141952036389607</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1618651947757025</v>
+        <v>0.1537515383367834</v>
       </c>
       <c r="C53">
-        <v>0.009627152337376876</v>
+        <v>0.009021296474922015</v>
       </c>
       <c r="D53">
-        <v>0.002087961148627567</v>
+        <v>0.002230754734018387</v>
       </c>
       <c r="E53">
-        <v>0.05270396161171994</v>
+        <v>0.02710193312659838</v>
       </c>
       <c r="F53">
-        <v>0.1868212180660555</v>
+        <v>-0.03165110336365962</v>
       </c>
       <c r="G53">
-        <v>0.04819964191202505</v>
+        <v>0.03172863715595012</v>
       </c>
       <c r="H53">
-        <v>0.05080536495425193</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.07043291279746575</v>
+      </c>
+      <c r="I53">
+        <v>-0.1681721009296019</v>
+      </c>
+      <c r="J53">
+        <v>-0.1853853110461634</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.05489750484630987</v>
+        <v>0.05110324836622761</v>
       </c>
       <c r="C54">
-        <v>0.002708433026730551</v>
+        <v>0.007164017118901685</v>
       </c>
       <c r="D54">
-        <v>-0.02471038657929904</v>
+        <v>-0.01111816539479448</v>
       </c>
       <c r="E54">
-        <v>-0.009947287218742601</v>
+        <v>-0.01486862211522899</v>
       </c>
       <c r="F54">
-        <v>-0.01056143771963503</v>
+        <v>-0.0148087789661492</v>
       </c>
       <c r="G54">
-        <v>-0.06121675430023379</v>
+        <v>-0.008166272650693859</v>
       </c>
       <c r="H54">
-        <v>0.1042611171934166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.06361597083818332</v>
+      </c>
+      <c r="I54">
+        <v>0.1000130950464067</v>
+      </c>
+      <c r="J54">
+        <v>-0.1000148958305129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.0971085792240176</v>
+        <v>0.08929673800506117</v>
       </c>
       <c r="C55">
-        <v>0.01300391816982648</v>
+        <v>0.02132642406012916</v>
       </c>
       <c r="D55">
-        <v>-0.007616997470883099</v>
+        <v>0.0190814272867097</v>
       </c>
       <c r="E55">
-        <v>0.02596912257441796</v>
+        <v>-0.03075871594377958</v>
       </c>
       <c r="F55">
-        <v>0.1203189971976113</v>
+        <v>0.01025538938926461</v>
       </c>
       <c r="G55">
-        <v>-0.01365150128814237</v>
+        <v>0.01174915171446864</v>
       </c>
       <c r="H55">
-        <v>0.08363421534880018</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.01526910364170044</v>
+      </c>
+      <c r="I55">
+        <v>-0.05002574022044141</v>
+      </c>
+      <c r="J55">
+        <v>-0.1314099274310474</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1648348197167309</v>
+        <v>0.1620666747535715</v>
       </c>
       <c r="C56">
-        <v>0.006659967433831846</v>
+        <v>0.03201167077245283</v>
       </c>
       <c r="D56">
-        <v>0.01002822783117182</v>
+        <v>-0.01202551103160725</v>
       </c>
       <c r="E56">
-        <v>0.08458115419132924</v>
+        <v>-0.009952272910448571</v>
       </c>
       <c r="F56">
-        <v>0.1806398281767394</v>
+        <v>0.01291466092386182</v>
       </c>
       <c r="G56">
-        <v>0.03511498169152046</v>
+        <v>0.03447645242226158</v>
       </c>
       <c r="H56">
-        <v>0.04701802682331782</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.001242802711411224</v>
+      </c>
+      <c r="I56">
+        <v>-0.1001102745587367</v>
+      </c>
+      <c r="J56">
+        <v>-0.1563101423767061</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.02053424116358209</v>
+        <v>0.03831766622768846</v>
       </c>
       <c r="C58">
-        <v>0.06453476847402502</v>
+        <v>0.01914591522026559</v>
       </c>
       <c r="D58">
-        <v>-0.1078719997949243</v>
+        <v>-0.01514872267373476</v>
       </c>
       <c r="E58">
-        <v>5.128773618563417e-05</v>
+        <v>-0.01432923902476614</v>
       </c>
       <c r="F58">
-        <v>-0.4471284105151994</v>
+        <v>-0.06249927086259514</v>
       </c>
       <c r="G58">
-        <v>-0.225618040765258</v>
+        <v>-2.288942201628304e-05</v>
       </c>
       <c r="H58">
-        <v>-0.2087044398096619</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.1098423315659859</v>
+      </c>
+      <c r="I58">
+        <v>-0.008580668363330827</v>
+      </c>
+      <c r="J58">
+        <v>-0.02204666394101897</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.146724756577144</v>
+        <v>0.1428135232846735</v>
       </c>
       <c r="C59">
-        <v>-0.3763243438808981</v>
+        <v>-0.3026193175669901</v>
       </c>
       <c r="D59">
-        <v>0.02748165237716438</v>
+        <v>0.0712673258581764</v>
       </c>
       <c r="E59">
-        <v>-0.04630635814855048</v>
+        <v>-0.03917399159109164</v>
       </c>
       <c r="F59">
-        <v>0.07311028025464603</v>
+        <v>0.04704328252531883</v>
       </c>
       <c r="G59">
-        <v>-0.009537831509341873</v>
+        <v>0.03457991548641964</v>
       </c>
       <c r="H59">
-        <v>-0.02589552549201216</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.05392711852004236</v>
+      </c>
+      <c r="I59">
+        <v>0.06693523025932344</v>
+      </c>
+      <c r="J59">
+        <v>0.008437037260511983</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.2801066974962256</v>
+        <v>0.2840992406900793</v>
       </c>
       <c r="C60">
-        <v>0.04933019320515315</v>
+        <v>0.07040802357583621</v>
       </c>
       <c r="D60">
-        <v>0.06524315181886865</v>
+        <v>-0.007673890174056773</v>
       </c>
       <c r="E60">
-        <v>-0.03549364933259216</v>
+        <v>0.09882806855256772</v>
       </c>
       <c r="F60">
-        <v>-0.05614531199660381</v>
+        <v>-0.0112527922232449</v>
       </c>
       <c r="G60">
-        <v>0.1910511847581642</v>
+        <v>0.1169280661621661</v>
       </c>
       <c r="H60">
-        <v>-0.1180924403567555</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.1329173799173113</v>
+      </c>
+      <c r="I60">
+        <v>-0.1116744249796635</v>
+      </c>
+      <c r="J60">
+        <v>0.4463144499674029</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.09206445144939225</v>
+        <v>0.1175904879564345</v>
       </c>
       <c r="C61">
-        <v>0.01862901438120704</v>
+        <v>0.05846528928539044</v>
       </c>
       <c r="D61">
-        <v>-0.02243102613077821</v>
+        <v>0.003850069743675877</v>
       </c>
       <c r="E61">
-        <v>-0.01507604690291235</v>
+        <v>-0.04988496048533556</v>
       </c>
       <c r="F61">
-        <v>0.03924084199825896</v>
+        <v>0.09488985362625288</v>
       </c>
       <c r="G61">
-        <v>-0.0752055300197343</v>
+        <v>0.02806934070252388</v>
       </c>
       <c r="H61">
-        <v>-0.02982739522130366</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.1346168943961283</v>
+      </c>
+      <c r="I61">
+        <v>0.1135298565574072</v>
+      </c>
+      <c r="J61">
+        <v>-0.04325619465431317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>-0.1449356463035038</v>
+        <v>0.1588522196988318</v>
       </c>
       <c r="C62">
-        <v>0.03559104284685123</v>
+        <v>0.02860152850103575</v>
       </c>
       <c r="D62">
-        <v>0.06083280738737557</v>
+        <v>-0.003462393423367916</v>
       </c>
       <c r="E62">
-        <v>0.08912141854601015</v>
+        <v>0.005619986700228078</v>
       </c>
       <c r="F62">
-        <v>0.165632547628355</v>
+        <v>0.00558461237990893</v>
       </c>
       <c r="G62">
-        <v>0.03040427187051959</v>
+        <v>0.006239963907915891</v>
       </c>
       <c r="H62">
-        <v>0.07509142798474003</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.03101756615207741</v>
+      </c>
+      <c r="I62">
+        <v>-0.1178395075232587</v>
+      </c>
+      <c r="J62">
+        <v>-0.1409366932798162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.0452845827244327</v>
+        <v>0.04742203364524718</v>
       </c>
       <c r="C63">
-        <v>0.01854756393538301</v>
+        <v>0.01977935502790633</v>
       </c>
       <c r="D63">
-        <v>8.377588438370353e-05</v>
+        <v>0.004231386397716587</v>
       </c>
       <c r="E63">
-        <v>0.0170541838561227</v>
+        <v>-0.03139218970023235</v>
       </c>
       <c r="F63">
-        <v>-0.01330768164327126</v>
+        <v>0.01621297009618864</v>
       </c>
       <c r="G63">
-        <v>-0.02567159530708165</v>
+        <v>-0.03805654223151148</v>
       </c>
       <c r="H63">
-        <v>0.1098608733350143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.04936767843519661</v>
+      </c>
+      <c r="I63">
+        <v>0.05913382364079554</v>
+      </c>
+      <c r="J63">
+        <v>-0.06363484775752302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.112720413753385</v>
+        <v>0.1024276371449552</v>
       </c>
       <c r="C64">
-        <v>0.007588114443492596</v>
+        <v>0.02467514504730161</v>
       </c>
       <c r="D64">
-        <v>-0.01469134453590314</v>
+        <v>-0.01293130030888383</v>
       </c>
       <c r="E64">
-        <v>-0.03900374602292412</v>
+        <v>-0.006809927185042988</v>
       </c>
       <c r="F64">
-        <v>-0.001749174782222313</v>
+        <v>0.01325302154476404</v>
       </c>
       <c r="G64">
-        <v>-0.02663738131121083</v>
+        <v>0.05501554761004105</v>
       </c>
       <c r="H64">
-        <v>0.002766899790618242</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.05561991989899071</v>
+      </c>
+      <c r="I64">
+        <v>0.05648282909408473</v>
+      </c>
+      <c r="J64">
+        <v>0.02961360904938093</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.1109412751089179</v>
+        <v>0.1156378380289997</v>
       </c>
       <c r="C65">
-        <v>0.03434982947044993</v>
+        <v>0.01018355092659453</v>
       </c>
       <c r="D65">
-        <v>-0.0001411044135297367</v>
+        <v>0.01630870261576898</v>
       </c>
       <c r="E65">
-        <v>-0.0161332659287918</v>
+        <v>0.01340252642804706</v>
       </c>
       <c r="F65">
-        <v>-0.4663004332001924</v>
+        <v>-0.0100297421119896</v>
       </c>
       <c r="G65">
-        <v>0.1425946991119347</v>
+        <v>-0.0843898147606728</v>
       </c>
       <c r="H65">
-        <v>0.5446889889317112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.05326396292845691</v>
+      </c>
+      <c r="I65">
+        <v>0.008969426022258573</v>
+      </c>
+      <c r="J65">
+        <v>0.09469679765067211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1560552389199873</v>
+        <v>0.1810940326564558</v>
       </c>
       <c r="C66">
-        <v>0.04669601169945414</v>
+        <v>0.1103107066842844</v>
       </c>
       <c r="D66">
-        <v>-0.01251007396924527</v>
+        <v>-0.04092521584219917</v>
       </c>
       <c r="E66">
-        <v>-0.06089647433381634</v>
+        <v>-0.06983796975701127</v>
       </c>
       <c r="F66">
-        <v>0.1022186987222132</v>
+        <v>0.1668570184749812</v>
       </c>
       <c r="G66">
-        <v>-0.2630508328566519</v>
+        <v>0.03963068310595057</v>
       </c>
       <c r="H66">
-        <v>-0.1679413946999955</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.1561698812100286</v>
+      </c>
+      <c r="I66">
+        <v>0.05763455454878137</v>
+      </c>
+      <c r="J66">
+        <v>0.04842860880882162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.107452477530875</v>
+        <v>0.08603059466378822</v>
       </c>
       <c r="C67">
-        <v>0.03923055779744693</v>
+        <v>0.04202669490225999</v>
       </c>
       <c r="D67">
-        <v>0.01318898243325441</v>
+        <v>0.003948122904735615</v>
       </c>
       <c r="E67">
-        <v>-0.03405603071145229</v>
+        <v>-0.07240334455591645</v>
       </c>
       <c r="F67">
-        <v>0.06206380463827486</v>
+        <v>-0.01932294767807944</v>
       </c>
       <c r="G67">
-        <v>-0.02757394683528522</v>
+        <v>0.02458424220260803</v>
       </c>
       <c r="H67">
-        <v>-0.003917128698562674</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.0873628277209116</v>
+      </c>
+      <c r="I67">
+        <v>-0.02935320739251069</v>
+      </c>
+      <c r="J67">
+        <v>0.03622258017824116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.03809443444114416</v>
+        <v>0.06209147859925244</v>
       </c>
       <c r="C68">
-        <v>-0.2932958938265473</v>
+        <v>-0.2785016120349113</v>
       </c>
       <c r="D68">
-        <v>-0.002674425230657274</v>
+        <v>0.07270267579485858</v>
       </c>
       <c r="E68">
-        <v>0.02492955299157585</v>
+        <v>-0.02641880666424836</v>
       </c>
       <c r="F68">
-        <v>-0.01696926816260017</v>
+        <v>0.05008385844430372</v>
       </c>
       <c r="G68">
-        <v>0.02040111630693446</v>
+        <v>-0.01717288280022527</v>
       </c>
       <c r="H68">
-        <v>0.02824706194779554</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.04913223087272177</v>
+      </c>
+      <c r="I68">
+        <v>0.0407572987162013</v>
+      </c>
+      <c r="J68">
+        <v>0.006187377827889981</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.05089565737156706</v>
+        <v>0.03844614586075497</v>
       </c>
       <c r="C69">
-        <v>0.009430952039751727</v>
+        <v>0.001002641768059868</v>
       </c>
       <c r="D69">
-        <v>-0.003182456263857321</v>
+        <v>0.0136396325079878</v>
       </c>
       <c r="E69">
-        <v>0.03927559522521828</v>
+        <v>-0.02392700293696262</v>
       </c>
       <c r="F69">
-        <v>-0.006612673258850899</v>
+        <v>-0.004488802248832394</v>
       </c>
       <c r="G69">
-        <v>-0.01235279572298691</v>
+        <v>0.008715218219432596</v>
       </c>
       <c r="H69">
-        <v>0.005441432809601854</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.01078281502716211</v>
+      </c>
+      <c r="I69">
+        <v>-0.007575429300264675</v>
+      </c>
+      <c r="J69">
+        <v>-0.01756829756592546</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>-0.0812177934349851</v>
+        <v>0.03905651062496583</v>
       </c>
       <c r="C70">
-        <v>0.007846568751867469</v>
+        <v>-0.00799765617691244</v>
       </c>
       <c r="D70">
-        <v>0.03329586123304039</v>
+        <v>0.02063330791159699</v>
       </c>
       <c r="E70">
-        <v>-0.05216534833376373</v>
+        <v>-0.02451253025097517</v>
       </c>
       <c r="F70">
-        <v>0.02867355604975747</v>
+        <v>0.02228867018232974</v>
       </c>
       <c r="G70">
-        <v>0.04095949450133686</v>
+        <v>0.06021390851663116</v>
       </c>
       <c r="H70">
-        <v>0.01614955518906386</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.03417489311006638</v>
+      </c>
+      <c r="I70">
+        <v>-0.01513989994241757</v>
+      </c>
+      <c r="J70">
+        <v>-0.07461998194188549</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.04798004037142351</v>
+        <v>0.07296857027171114</v>
       </c>
       <c r="C71">
-        <v>-0.3004465484016661</v>
+        <v>-0.2919662430591161</v>
       </c>
       <c r="D71">
-        <v>0.003663379628418042</v>
+        <v>0.07824356228178038</v>
       </c>
       <c r="E71">
-        <v>-0.002616748966076775</v>
+        <v>-0.02988552129800083</v>
       </c>
       <c r="F71">
-        <v>-0.003493547973337784</v>
+        <v>0.04258909631705399</v>
       </c>
       <c r="G71">
-        <v>-0.001876866888156784</v>
+        <v>0.009344431499480364</v>
       </c>
       <c r="H71">
-        <v>-0.001570174720069187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.04913367233714439</v>
+      </c>
+      <c r="I71">
+        <v>0.04527569171438091</v>
+      </c>
+      <c r="J71">
+        <v>0.03027522638735482</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1309930548766299</v>
+        <v>0.1347456418404222</v>
       </c>
       <c r="C72">
-        <v>-0.01448296734702165</v>
+        <v>-0.02233943038367806</v>
       </c>
       <c r="D72">
-        <v>0.07631110434960334</v>
+        <v>-0.01291074071018332</v>
       </c>
       <c r="E72">
-        <v>0.1335624559402217</v>
+        <v>-0.02045017484955163</v>
       </c>
       <c r="F72">
-        <v>-0.01403812034552363</v>
+        <v>0.00698995353075177</v>
       </c>
       <c r="G72">
-        <v>-0.03608765749512159</v>
+        <v>-0.04813024301093575</v>
       </c>
       <c r="H72">
-        <v>0.08668063324075147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.04615598789016745</v>
+      </c>
+      <c r="I72">
+        <v>-0.01439343356865051</v>
+      </c>
+      <c r="J72">
+        <v>-0.04677140229743665</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2786046803252971</v>
+        <v>0.2365699417799611</v>
       </c>
       <c r="C73">
-        <v>0.1402551403148953</v>
+        <v>0.02529222515103497</v>
       </c>
       <c r="D73">
-        <v>0.1238473225811944</v>
+        <v>-0.0348935073302982</v>
       </c>
       <c r="E73">
-        <v>-0.08292939046931803</v>
+        <v>0.001469918930181065</v>
       </c>
       <c r="F73">
-        <v>-0.236146814834891</v>
+        <v>0.03309076751566618</v>
       </c>
       <c r="G73">
-        <v>0.3026553749152024</v>
+        <v>0.2003170739894953</v>
       </c>
       <c r="H73">
-        <v>-0.3655618551285033</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2599418848608507</v>
+      </c>
+      <c r="I73">
+        <v>-0.2568028357472175</v>
+      </c>
+      <c r="J73">
+        <v>0.3187550341603191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1001716806025406</v>
+        <v>0.107221575567959</v>
       </c>
       <c r="C74">
-        <v>0.03468787039116875</v>
+        <v>0.02047938437468886</v>
       </c>
       <c r="D74">
-        <v>-0.004408969831502612</v>
+        <v>-0.02461483490292459</v>
       </c>
       <c r="E74">
-        <v>0.0186721972186329</v>
+        <v>-0.01605270741945539</v>
       </c>
       <c r="F74">
-        <v>0.1010426503111337</v>
+        <v>0.001624407355252</v>
       </c>
       <c r="G74">
-        <v>0.04439500816794022</v>
+        <v>0.01791058647945252</v>
       </c>
       <c r="H74">
-        <v>0.03347785866601703</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.02127527118284335</v>
+      </c>
+      <c r="I74">
+        <v>-0.1114288844204218</v>
+      </c>
+      <c r="J74">
+        <v>-0.1124412435443589</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.09392769158489976</v>
+        <v>0.120995194242169</v>
       </c>
       <c r="C75">
-        <v>0.02245324004106046</v>
+        <v>0.03484887785043423</v>
       </c>
       <c r="D75">
-        <v>0.007362380126059099</v>
+        <v>-0.02127606964974055</v>
       </c>
       <c r="E75">
-        <v>0.07662983618527182</v>
+        <v>-0.01085901470184895</v>
       </c>
       <c r="F75">
-        <v>0.07940620183517205</v>
+        <v>-0.007151832558846037</v>
       </c>
       <c r="G75">
-        <v>0.03676292955446041</v>
+        <v>-0.01451147717699052</v>
       </c>
       <c r="H75">
-        <v>0.02532882488451077</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.007387099009920738</v>
+      </c>
+      <c r="I75">
+        <v>-0.06511000859912422</v>
+      </c>
+      <c r="J75">
+        <v>-0.1326599299438487</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.1417585985093647</v>
+        <v>0.04397747297501797</v>
       </c>
       <c r="C76">
-        <v>0.03184156770169611</v>
+        <v>-0.001278480322426014</v>
       </c>
       <c r="D76">
-        <v>-0.03595799540542617</v>
+        <v>-0.01100775082424634</v>
       </c>
       <c r="E76">
-        <v>0.05111720906290623</v>
+        <v>-0.0262808339642811</v>
       </c>
       <c r="F76">
-        <v>0.1980679291750772</v>
+        <v>-0.02555893291637369</v>
       </c>
       <c r="G76">
-        <v>0.07352651071407633</v>
+        <v>0.03286722785769696</v>
       </c>
       <c r="H76">
-        <v>0.05166231723634231</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.05331365509263401</v>
+      </c>
+      <c r="I76">
+        <v>-0.04337421855966433</v>
+      </c>
+      <c r="J76">
+        <v>-0.08089918976808805</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.0778143375798077</v>
+        <v>0.0873231366045007</v>
       </c>
       <c r="C77">
-        <v>-0.01405304084074125</v>
+        <v>0.08092765170518627</v>
       </c>
       <c r="D77">
-        <v>-0.00974937164696495</v>
+        <v>-0.01224923183001846</v>
       </c>
       <c r="E77">
-        <v>-0.1258842491064114</v>
+        <v>0.001045542936722955</v>
       </c>
       <c r="F77">
-        <v>-0.1843809977524864</v>
+        <v>0.00501831045375261</v>
       </c>
       <c r="G77">
-        <v>-0.174430050848294</v>
+        <v>0.03202467370292972</v>
       </c>
       <c r="H77">
-        <v>-0.1759189751813608</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.0384702269913145</v>
+      </c>
+      <c r="I77">
+        <v>0.2154473505496495</v>
+      </c>
+      <c r="J77">
+        <v>0.1790478208060868</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.2307632066278814</v>
+        <v>0.1353061018627581</v>
       </c>
       <c r="C78">
-        <v>0.03823187044644333</v>
+        <v>0.00906235758470896</v>
       </c>
       <c r="D78">
-        <v>-0.1534248649270067</v>
+        <v>-0.1574310017876992</v>
       </c>
       <c r="E78">
-        <v>-0.09245579067707375</v>
+        <v>-0.2125083493666018</v>
       </c>
       <c r="F78">
-        <v>-0.07608705531469563</v>
+        <v>-0.3175392885561257</v>
       </c>
       <c r="G78">
-        <v>-0.1679619058045662</v>
+        <v>-0.173382638438824</v>
       </c>
       <c r="H78">
-        <v>0.08110411283132293</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.5661596179130844</v>
+      </c>
+      <c r="I78">
+        <v>0.5726719241864301</v>
+      </c>
+      <c r="J78">
+        <v>-0.08221318038911574</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.1390838023047964</v>
+        <v>0.1413991385585238</v>
       </c>
       <c r="C79">
-        <v>0.008874479411672548</v>
+        <v>0.02778776835377866</v>
       </c>
       <c r="D79">
-        <v>0.01007706887454274</v>
+        <v>-0.04470998989134664</v>
       </c>
       <c r="E79">
-        <v>0.05011278790443553</v>
+        <v>0.005676908922308943</v>
       </c>
       <c r="F79">
-        <v>0.1054729519377073</v>
+        <v>0.006808461387436291</v>
       </c>
       <c r="G79">
-        <v>-0.007836390335219812</v>
+        <v>0.01964291143797296</v>
       </c>
       <c r="H79">
-        <v>0.07171701395811718</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.004849903140477331</v>
+      </c>
+      <c r="I79">
+        <v>-0.1028678611826548</v>
+      </c>
+      <c r="J79">
+        <v>-0.1345819457525316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.04261357681262263</v>
+        <v>0.07628419383246381</v>
       </c>
       <c r="C80">
-        <v>-0.008558304458934882</v>
+        <v>0.0544285341271021</v>
       </c>
       <c r="D80">
-        <v>0.1064758467537991</v>
+        <v>0.0146994035674071</v>
       </c>
       <c r="E80">
-        <v>-0.03842550398466626</v>
+        <v>-0.03186877311009819</v>
       </c>
       <c r="F80">
-        <v>-0.03918434035127939</v>
+        <v>0.05729863478403439</v>
       </c>
       <c r="G80">
-        <v>-0.0167109288194352</v>
+        <v>0.004417470459047507</v>
       </c>
       <c r="H80">
-        <v>0.1235509227309456</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.02069976601996403</v>
+      </c>
+      <c r="I80">
+        <v>0.03928092710183233</v>
+      </c>
+      <c r="J80">
+        <v>-0.1241840061466807</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.105889179479593</v>
+        <v>0.1378632787403392</v>
       </c>
       <c r="C81">
-        <v>0.0008059438321219588</v>
+        <v>0.03532317673302942</v>
       </c>
       <c r="D81">
-        <v>-0.00103851262519583</v>
+        <v>-0.02841788410379012</v>
       </c>
       <c r="E81">
-        <v>0.02754002696944838</v>
+        <v>-0.01999455606514633</v>
       </c>
       <c r="F81">
-        <v>0.12888961697875</v>
+        <v>-0.009837611242734932</v>
       </c>
       <c r="G81">
-        <v>0.007650010089253963</v>
+        <v>0.01659657526464541</v>
       </c>
       <c r="H81">
-        <v>0.03183564218603898</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.01891070280519846</v>
+      </c>
+      <c r="I81">
+        <v>-0.0412487043619878</v>
+      </c>
+      <c r="J81">
+        <v>-0.1632382677329028</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.1149903000674562</v>
+        <v>0.1578669131491692</v>
       </c>
       <c r="C82">
-        <v>0.0178865083918222</v>
+        <v>0.04437555072433214</v>
       </c>
       <c r="D82">
-        <v>0.02907532770326444</v>
+        <v>0.003667578231120793</v>
       </c>
       <c r="E82">
-        <v>-0.02584269992892202</v>
+        <v>0.001226876294920304</v>
       </c>
       <c r="F82">
-        <v>0.2426362146213751</v>
+        <v>0.03090931756601517</v>
       </c>
       <c r="G82">
-        <v>0.01844246484953261</v>
+        <v>0.05344252855506889</v>
       </c>
       <c r="H82">
-        <v>0.08894435294177296</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.01084109549250923</v>
+      </c>
+      <c r="I82">
+        <v>-0.1526610713485496</v>
+      </c>
+      <c r="J82">
+        <v>-0.2084032635412212</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.1109020234015614</v>
+        <v>0.08398717777288048</v>
       </c>
       <c r="C83">
-        <v>0.04261877324539221</v>
+        <v>0.02751728641480846</v>
       </c>
       <c r="D83">
-        <v>0.03378515994022907</v>
+        <v>0.00654096913901652</v>
       </c>
       <c r="E83">
-        <v>-0.08983149484422855</v>
+        <v>0.04240177932924268</v>
       </c>
       <c r="F83">
-        <v>-0.009052557360286572</v>
+        <v>-0.03515595409608793</v>
       </c>
       <c r="G83">
-        <v>-0.07503469555504358</v>
+        <v>-0.01043969177603521</v>
       </c>
       <c r="H83">
-        <v>-0.05038226856148416</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.002053844196102851</v>
+      </c>
+      <c r="I83">
+        <v>0.03607382270003503</v>
+      </c>
+      <c r="J83">
+        <v>-0.09446447774505405</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.05062975479753812</v>
+        <v>0.0698615719920328</v>
       </c>
       <c r="C84">
-        <v>0.03095512865085118</v>
+        <v>0.02391599030070583</v>
       </c>
       <c r="D84">
-        <v>-0.01285868722844517</v>
+        <v>0.008444668147465969</v>
       </c>
       <c r="E84">
-        <v>0.04456961134549674</v>
+        <v>0.01612329356331331</v>
       </c>
       <c r="F84">
-        <v>0.0495804626040201</v>
+        <v>0.04340442585003488</v>
       </c>
       <c r="G84">
-        <v>0.01159639242935461</v>
+        <v>0.03782572376974009</v>
       </c>
       <c r="H84">
-        <v>0.04550547488752906</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.04485612170758704</v>
+      </c>
+      <c r="I84">
+        <v>0.06913184084911503</v>
+      </c>
+      <c r="J84">
+        <v>0.1417118173857609</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.1089115589311693</v>
+        <v>0.1221680272224543</v>
       </c>
       <c r="C85">
-        <v>0.01800544925102376</v>
+        <v>0.01495593652267448</v>
       </c>
       <c r="D85">
-        <v>0.003363785088892878</v>
+        <v>-0.0131701089846624</v>
       </c>
       <c r="E85">
-        <v>0.07962554421491248</v>
+        <v>-0.002504054178712245</v>
       </c>
       <c r="F85">
-        <v>0.128131711479941</v>
+        <v>-0.007867094333768537</v>
       </c>
       <c r="G85">
-        <v>-0.001971869767718561</v>
+        <v>0.02164804553522744</v>
       </c>
       <c r="H85">
-        <v>0.0927653362690181</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.005658862645241832</v>
+      </c>
+      <c r="I85">
+        <v>-0.07188812151910071</v>
+      </c>
+      <c r="J85">
+        <v>-0.1285729228264381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.07132837131600833</v>
+        <v>0.1154647257296078</v>
       </c>
       <c r="C86">
-        <v>0.0169280434531843</v>
+        <v>-0.077755487637879</v>
       </c>
       <c r="D86">
-        <v>-0.02794217645390697</v>
+        <v>-0.315643483634369</v>
       </c>
       <c r="E86">
-        <v>-0.122357044567588</v>
+        <v>0.8664974424506202</v>
       </c>
       <c r="F86">
-        <v>0.007291921397438815</v>
+        <v>-0.1240246861669607</v>
       </c>
       <c r="G86">
-        <v>0.03218085326661527</v>
+        <v>-0.1194725445505262</v>
       </c>
       <c r="H86">
-        <v>0.2592058476700215</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.1236357065827554</v>
+      </c>
+      <c r="I86">
+        <v>0.1650006502308677</v>
+      </c>
+      <c r="J86">
+        <v>-0.02894111560780892</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.1113639575160859</v>
+        <v>0.1178111425817672</v>
       </c>
       <c r="C87">
-        <v>0.04645629747626949</v>
+        <v>0.08842349874301218</v>
       </c>
       <c r="D87">
-        <v>-0.02604377342362269</v>
+        <v>0.06248485151084247</v>
       </c>
       <c r="E87">
-        <v>-0.03124011106853501</v>
+        <v>0.0007284473302270813</v>
       </c>
       <c r="F87">
-        <v>-0.0298645892776109</v>
+        <v>-0.0259202391092203</v>
       </c>
       <c r="G87">
-        <v>-0.137578429606738</v>
+        <v>0.03379350236370806</v>
       </c>
       <c r="H87">
-        <v>0.02186610797890207</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.04199440156686075</v>
+      </c>
+      <c r="I87">
+        <v>0.2174824036906181</v>
+      </c>
+      <c r="J87">
+        <v>0.08529844676006024</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.07342020343879968</v>
+        <v>0.05479631241737628</v>
       </c>
       <c r="C88">
-        <v>0.03643170766735063</v>
+        <v>0.0244157749131196</v>
       </c>
       <c r="D88">
-        <v>-0.007349290946257015</v>
+        <v>-0.0253331018209717</v>
       </c>
       <c r="E88">
-        <v>-0.02813902321835121</v>
+        <v>-0.0334490698761525</v>
       </c>
       <c r="F88">
-        <v>0.02723659563288118</v>
+        <v>0.04855381019105642</v>
       </c>
       <c r="G88">
-        <v>-0.050011794328606</v>
+        <v>0.016147782510785</v>
       </c>
       <c r="H88">
-        <v>0.01100653105005906</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.001189859509928615</v>
+      </c>
+      <c r="I88">
+        <v>0.02467908231489074</v>
+      </c>
+      <c r="J88">
+        <v>-0.05956328798764833</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.09152104027351066</v>
+        <v>0.1166908957083118</v>
       </c>
       <c r="C89">
-        <v>-0.3861705481279669</v>
+        <v>-0.3733805834366568</v>
       </c>
       <c r="D89">
-        <v>-0.01183779277528885</v>
+        <v>0.0914950607563277</v>
       </c>
       <c r="E89">
-        <v>-0.04905343314574811</v>
+        <v>-0.01264597110940765</v>
       </c>
       <c r="F89">
-        <v>-0.0150636530163935</v>
+        <v>-0.02830386516826795</v>
       </c>
       <c r="G89">
-        <v>0.007623234688867575</v>
+        <v>0.04658446896363597</v>
       </c>
       <c r="H89">
-        <v>-0.01664318648034574</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.01198777758193072</v>
+      </c>
+      <c r="I89">
+        <v>0.01986214991301188</v>
+      </c>
+      <c r="J89">
+        <v>-0.003191536558255297</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.07432957731126587</v>
+        <v>0.0878417822147929</v>
       </c>
       <c r="C90">
-        <v>-0.2996725504068533</v>
+        <v>-0.2965667184056811</v>
       </c>
       <c r="D90">
-        <v>-0.02973409874124799</v>
+        <v>0.07363935461080449</v>
       </c>
       <c r="E90">
-        <v>-0.02123567043143069</v>
+        <v>-0.01745391164829063</v>
       </c>
       <c r="F90">
-        <v>-0.02531617774392687</v>
+        <v>0.04339776018466712</v>
       </c>
       <c r="G90">
-        <v>-0.01577112798994924</v>
+        <v>0.02085595940333643</v>
       </c>
       <c r="H90">
-        <v>-0.05219876354233356</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.05821642557594411</v>
+      </c>
+      <c r="I90">
+        <v>0.04138759207843828</v>
+      </c>
+      <c r="J90">
+        <v>0.03808944397528816</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.0808654094050188</v>
+        <v>0.08891109345286742</v>
       </c>
       <c r="C91">
-        <v>0.03004124705817246</v>
+        <v>0.02219085667687997</v>
       </c>
       <c r="D91">
-        <v>-0.005169427775915886</v>
+        <v>-0.02129918899462447</v>
       </c>
       <c r="E91">
-        <v>0.01500476614061176</v>
+        <v>0.009802470102349015</v>
       </c>
       <c r="F91">
-        <v>0.05758025767656963</v>
+        <v>-0.00842330917768146</v>
       </c>
       <c r="G91">
-        <v>0.04275853227831725</v>
+        <v>0.02333357630725347</v>
       </c>
       <c r="H91">
-        <v>-0.01479564848984536</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.006308283485166275</v>
+      </c>
+      <c r="I91">
+        <v>-0.04514687404696807</v>
+      </c>
+      <c r="J91">
+        <v>-0.08192008648140764</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.06708649161117593</v>
+        <v>0.0965752037308789</v>
       </c>
       <c r="C92">
-        <v>-0.3590483055847268</v>
+        <v>-0.3335124382435248</v>
       </c>
       <c r="D92">
-        <v>-0.02291690029348459</v>
+        <v>0.1038406023530651</v>
       </c>
       <c r="E92">
-        <v>-0.02215841748565697</v>
+        <v>-0.006011495322818703</v>
       </c>
       <c r="F92">
-        <v>-0.0633648851118646</v>
+        <v>-0.001304923715647509</v>
       </c>
       <c r="G92">
-        <v>-0.005534938993404913</v>
+        <v>0.0007651296448692845</v>
       </c>
       <c r="H92">
-        <v>-0.02252679313452809</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.0620942291371989</v>
+      </c>
+      <c r="I92">
+        <v>0.03559184579129619</v>
+      </c>
+      <c r="J92">
+        <v>-0.04586748933819719</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.08266417839868956</v>
+        <v>0.08872186448588261</v>
       </c>
       <c r="C93">
-        <v>-0.3124502119816831</v>
+        <v>-0.3222856222843613</v>
       </c>
       <c r="D93">
-        <v>0.01556639436934742</v>
+        <v>0.0774762829601205</v>
       </c>
       <c r="E93">
-        <v>-0.001980097944801536</v>
+        <v>-0.003974418078986312</v>
       </c>
       <c r="F93">
-        <v>-0.03073035446401455</v>
+        <v>0.06097193794976546</v>
       </c>
       <c r="G93">
-        <v>0.02880017502778689</v>
+        <v>0.02335487370323462</v>
       </c>
       <c r="H93">
-        <v>0.005313209701979343</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.02959583748684359</v>
+      </c>
+      <c r="I93">
+        <v>0.04206540671081153</v>
+      </c>
+      <c r="J93">
+        <v>0.007769788421619083</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.09463194710562511</v>
+        <v>0.1401427000932248</v>
       </c>
       <c r="C94">
-        <v>0.05039132126620375</v>
+        <v>0.03829508539586599</v>
       </c>
       <c r="D94">
-        <v>-0.01111540536334295</v>
+        <v>-0.02173336979643638</v>
       </c>
       <c r="E94">
-        <v>0.04128892311344493</v>
+        <v>-0.04774517012222178</v>
       </c>
       <c r="F94">
-        <v>0.1002081767858156</v>
+        <v>-0.02457614300336207</v>
       </c>
       <c r="G94">
-        <v>0.05034369546362508</v>
+        <v>0.0131407364894027</v>
       </c>
       <c r="H94">
-        <v>0.04210168284522583</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.009645860898498695</v>
+      </c>
+      <c r="I94">
+        <v>-0.0836135736340749</v>
+      </c>
+      <c r="J94">
+        <v>-0.1060079094924234</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1302761322111077</v>
+        <v>0.1256310844852453</v>
       </c>
       <c r="C95">
-        <v>0.06759463896999936</v>
+        <v>0.04979842198472027</v>
       </c>
       <c r="D95">
-        <v>-0.06181711597157918</v>
+        <v>-0.02952677623226348</v>
       </c>
       <c r="E95">
-        <v>-0.07374421195097262</v>
+        <v>-0.03916862502823749</v>
       </c>
       <c r="F95">
-        <v>-0.1015711404361545</v>
+        <v>-0.01629437849368893</v>
       </c>
       <c r="G95">
-        <v>-0.114365601183938</v>
+        <v>0.03357078253884862</v>
       </c>
       <c r="H95">
-        <v>0.05607584879180694</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.08400213899428045</v>
+      </c>
+      <c r="I95">
+        <v>0.1517118865919821</v>
+      </c>
+      <c r="J95">
+        <v>0.07359857906664682</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.01101049149142895</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.000356721851825514</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.002078080122559509</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.004852227677424699</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.005877162403749284</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.008770644555791164</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.001929299561039491</v>
+      </c>
+      <c r="I96">
+        <v>0.0258838503780069</v>
+      </c>
+      <c r="J96">
+        <v>0.007367446279348499</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>-0.1444831133718383</v>
+        <v>0.1713937219340662</v>
       </c>
       <c r="C97">
-        <v>-0.04042357396225469</v>
+        <v>-0.02165855453457952</v>
       </c>
       <c r="D97">
-        <v>0.1291896586573457</v>
+        <v>-0.0439396934012795</v>
       </c>
       <c r="E97">
-        <v>0.8725711456104188</v>
+        <v>-0.1295191138315102</v>
       </c>
       <c r="F97">
-        <v>-0.1587630394113041</v>
+        <v>0.01143878005500993</v>
       </c>
       <c r="G97">
-        <v>-0.1406677423092696</v>
+        <v>-0.8987322152021643</v>
       </c>
       <c r="H97">
-        <v>-0.03280941209106079</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.09821146286529892</v>
+      </c>
+      <c r="I97">
+        <v>-0.2334077684179621</v>
+      </c>
+      <c r="J97">
+        <v>0.1307815516588178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.3213300793052977</v>
+        <v>0.2643483129356539</v>
       </c>
       <c r="C98">
-        <v>0.06442918492873208</v>
+        <v>0.009506161447691812</v>
       </c>
       <c r="D98">
-        <v>0.1680133544554996</v>
+        <v>0.0393164372220886</v>
       </c>
       <c r="E98">
-        <v>-0.1177609190611592</v>
+        <v>0.1355540518586011</v>
       </c>
       <c r="F98">
-        <v>-0.03164254998740443</v>
+        <v>-0.1145844597549207</v>
       </c>
       <c r="G98">
-        <v>0.239258550331288</v>
+        <v>0.03501186413885773</v>
       </c>
       <c r="H98">
-        <v>-0.1761620377131558</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.2999122535624892</v>
+      </c>
+      <c r="I98">
+        <v>-0.2024674985802975</v>
+      </c>
+      <c r="J98">
+        <v>-0.2100051036509964</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>-0.0878015166822841</v>
+        <v>0.0585866470637826</v>
       </c>
       <c r="C99">
-        <v>0.01916868396478493</v>
+        <v>-0.005110196779310298</v>
       </c>
       <c r="D99">
-        <v>-0.01161621469727636</v>
+        <v>-0.01697027566659326</v>
       </c>
       <c r="E99">
-        <v>0.003425483701149777</v>
+        <v>-0.04468247395400692</v>
       </c>
       <c r="F99">
-        <v>0.02395506540499044</v>
+        <v>-0.01257628274718174</v>
       </c>
       <c r="G99">
-        <v>-0.002136464781136346</v>
+        <v>0.0209493676793473</v>
       </c>
       <c r="H99">
-        <v>-0.07790640049740748</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.01170151907784285</v>
+      </c>
+      <c r="I99">
+        <v>-0.03806577642841051</v>
+      </c>
+      <c r="J99">
+        <v>-0.03144492219215628</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.0840691601508352</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.2274627187175126</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.8838289783534977</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.2536716136636922</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.09126979289059989</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.1081610118842094</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.04752774134010283</v>
+      </c>
+      <c r="I100">
+        <v>0.1134551446511201</v>
+      </c>
+      <c r="J100">
+        <v>-0.01407544614547512</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.05862084584902807</v>
+        <v>0.03603161873953634</v>
       </c>
       <c r="C101">
-        <v>-0.003159292353695329</v>
+        <v>0.005624757454418781</v>
       </c>
       <c r="D101">
-        <v>-0.03972472855893554</v>
+        <v>0.005029324153436522</v>
       </c>
       <c r="E101">
-        <v>-0.02997724578076629</v>
+        <v>-0.009143749243104215</v>
       </c>
       <c r="F101">
-        <v>0.02004738892608456</v>
+        <v>0.02597790147271166</v>
       </c>
       <c r="G101">
-        <v>-0.04377376593681625</v>
+        <v>0.02668676794625757</v>
       </c>
       <c r="H101">
-        <v>0.1076155666320934</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.06419637972129091</v>
+      </c>
+      <c r="I101">
+        <v>0.03826691314848844</v>
+      </c>
+      <c r="J101">
+        <v>-0.1043219852624321</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
